--- a/prueba4_excel.xlsx
+++ b/prueba4_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\Automatizacion_DiagramasDeFlujo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAEFF55-0748-4B85-9BBE-807B6C09A3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36C3712-37B8-42B2-B0B7-D535FD65832C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5265" yWindow="2145" windowWidth="21600" windowHeight="12810" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>Elemento1</t>
   </si>
@@ -484,15 +484,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692FC6F-E8B7-42EA-917E-25410140FE65}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:Q1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,8 +532,89 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
     </row>
   </sheetData>

--- a/prueba4_excel.xlsx
+++ b/prueba4_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\Automatizacion_DiagramasDeFlujo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36C3712-37B8-42B2-B0B7-D535FD65832C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA32AE8D-F2EC-4D7D-8AD7-80262CAECC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2145" windowWidth="21600" windowHeight="12810" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
+    <workbookView xWindow="30540" yWindow="1800" windowWidth="21600" windowHeight="12810" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
   </bookViews>
   <sheets>
     <sheet name="diagrama1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Elemento1</t>
   </si>
@@ -484,15 +484,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692FC6F-E8B7-42EA-917E-25410140FE65}">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AM1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,89 +532,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F6" s="3"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
     </row>
   </sheetData>

--- a/prueba4_excel.xlsx
+++ b/prueba4_excel.xlsx
@@ -543,4 +543,276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005CCE8C70ADE6FD4DB948CF3BFC52CAB6" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0d6baa5fddc89d1005b112fecbf2377">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4578e3cf-dc59-46b9-b473-9d64d86ba65a" xmlns:ns3="565c94a9-9f9d-407f-a547-016888b2b680" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d27b4b9bbf274307dd4fa983c05e6fa" ns2:_="" ns3:_="">
+    <xsd:import namespace="4578e3cf-dc59-46b9-b473-9d64d86ba65a"/>
+    <xsd:import namespace="565c94a9-9f9d-407f-a547-016888b2b680"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4578e3cf-dc59-46b9-b473-9d64d86ba65a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="554265b4-540b-40ef-96c8-1650e5c6003f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="565c94a9-9f9d-407f-a547-016888b2b680" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{08218340-d62d-4f8b-b7a8-8d328845d854}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="565c94a9-9f9d-407f-a547-016888b2b680">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A36557DF-50B4-411E-A511-42B3BA44FF70}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D1AA85F-822D-4397-9E26-EC022C8AC860}"/>
 </file>